--- a/analysisTable.xlsx
+++ b/analysisTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>day-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,26 @@
   </si>
   <si>
     <t>[]/array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined/elemt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element/defaultValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,15 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -746,275 +769,307 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>49</v>
       </c>
     </row>

--- a/analysisTable.xlsx
+++ b/analysisTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>day-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>element/defaultValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,213 +867,257 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
     </row>
